--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -28,13 +28,7 @@
     <t xml:space="preserve">telefone</t>
   </si>
   <si>
-    <t xml:space="preserve">lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maria</t>
+    <t xml:space="preserve">Lucas</t>
   </si>
 </sst>
 </file>
@@ -132,13 +126,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.02"/>
   </cols>
@@ -159,22 +153,9 @@
         <v>5535999843637</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>5535999843637</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>5535999843637</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
